--- a/CK3战斗机制附表.xlsx
+++ b/CK3战斗机制附表.xlsx
@@ -2,12 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZJUZB\OneDrive\游戏\游戏攻略\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="21795" windowHeight="12975" firstSheet="5" activeTab="6"/>
   </bookViews>
@@ -6604,6 +6599,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -23481,7 +23477,7 @@
         <v>1.3</v>
       </c>
       <c r="N36" s="23">
-        <f t="shared" ref="N36:N67" si="7">SQRT(H36*J36*K36*M36*I36*L36)</f>
+        <f t="shared" ref="N36:N54" si="7">SQRT(H36*J36*K36*M36*I36*L36)</f>
         <v>43.439337011515263</v>
       </c>
       <c r="O36" s="23">
@@ -23493,7 +23489,7 @@
         <v>4343.9337011515263</v>
       </c>
       <c r="Q36" s="34">
-        <f t="shared" ref="Q36:Q67" si="10">P36/D36</f>
+        <f t="shared" ref="Q36:Q54" si="10">P36/D36</f>
         <v>78.980612748209566</v>
       </c>
       <c r="R36" s="34">
@@ -23507,7 +23503,7 @@
         <v>8</v>
       </c>
       <c r="U36" s="39">
-        <f t="shared" ref="U36:U67" si="12">P36*SUM(S36:T36)</f>
+        <f t="shared" ref="U36:U54" si="12">P36*SUM(S36:T36)</f>
         <v>56471.138114969843</v>
       </c>
       <c r="V36" s="37">

--- a/CK3战斗机制附表.xlsx
+++ b/CK3战斗机制附表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="21795" windowHeight="12975" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="21795" windowHeight="12975" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="地形相关的建筑" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">地形相关的建筑!$A$1:$S$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'有驻扎加成的兵士军团标准战斗力排序（部落时代）'!$A$3:$AD$54</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3191,8 +3191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3512,181 +3512,181 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AW3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AX3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AY3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AZ3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BA3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BB3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BC3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BD3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BE3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BF3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BG3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BH3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BI3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BJ3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BK3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BL3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BM3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BN3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BO3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BP3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="Y3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BB3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BK3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BL3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BM3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BN3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BO3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BP3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:68">
@@ -3773,181 +3773,181 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Z4">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z4" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA4">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA4" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB4">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB4" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC4">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC4" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AW4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AX4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AY4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AZ4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BA4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BB4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BC4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BD4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BE4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BF4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BG4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BH4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BI4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BJ4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BK4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BL4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BM4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BN4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BO4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BP4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BB4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BK4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BL4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BM4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BN4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BO4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BP4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:68" ht="15" thickBot="1">
@@ -3955,21 +3955,21 @@
         <v>99</v>
       </c>
       <c r="B5" s="14">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5" s="14">
         <v>10</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.7745966692414834</v>
       </c>
       <c r="E5">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>7.745966692414834</v>
       </c>
       <c r="F5" s="14">
-        <v>2788</v>
+        <v>2000</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -3982,231 +3982,231 @@
       </c>
       <c r="L5">
         <f>F5*G5</f>
-        <v>2788</v>
+        <v>2000</v>
       </c>
       <c r="M5">
         <f t="shared" si="4"/>
-        <v>2698</v>
+        <v>1946.7980295566504</v>
       </c>
       <c r="N5">
         <f t="shared" si="5"/>
-        <v>2610.6215522388061</v>
+        <v>1897.7826860821242</v>
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
-        <v>2525.7842565320525</v>
+        <v>1852.9193333424159</v>
       </c>
       <c r="P5">
         <f t="shared" si="0"/>
-        <v>2443.4101043872556</v>
+        <v>1812.181793658383</v>
       </c>
       <c r="Q5">
         <f t="shared" si="0"/>
-        <v>2363.4234082190937</v>
+        <v>1775.5545036403457</v>
       </c>
       <c r="R5">
         <f t="shared" si="0"/>
-        <v>2285.7507328266406</v>
+        <v>1743.0362142421391</v>
       </c>
       <c r="S5">
         <f t="shared" si="0"/>
-        <v>2210.3208290788771</v>
+        <v>1714.6469386368015</v>
       </c>
       <c r="T5">
         <f t="shared" si="0"/>
-        <v>2137.064569758003</v>
+        <v>1690.4427880619662</v>
       </c>
       <c r="U5">
         <f t="shared" si="0"/>
-        <v>2065.914887513356</v>
+        <v>1670.554622480847</v>
       </c>
       <c r="V5">
         <f t="shared" si="0"/>
-        <v>1996.8067148821938</v>
+        <v>1655.3322065728516</v>
       </c>
       <c r="W5">
         <f t="shared" si="0"/>
-        <v>1929.6769263371943</v>
+        <v>1644.8340853207446</v>
       </c>
       <c r="X5">
         <f t="shared" si="0"/>
-        <v>1864.464282324358</v>
-      </c>
-      <c r="Y5">
-        <f t="shared" si="0"/>
-        <v>1801.1093752590696</v>
-      </c>
-      <c r="Z5">
-        <f t="shared" si="0"/>
-        <v>1739.5545774524796</v>
-      </c>
-      <c r="AA5">
-        <f t="shared" si="0"/>
-        <v>1679.7439909451334</v>
-      </c>
-      <c r="AB5">
-        <f t="shared" si="0"/>
-        <v>1621.6233992300158</v>
-      </c>
-      <c r="AC5">
-        <f t="shared" si="0"/>
-        <v>1565.1402208529694</v>
-      </c>
-      <c r="AD5">
-        <f t="shared" si="0"/>
-        <v>1510.2434648849135</v>
-      </c>
-      <c r="AE5">
-        <f t="shared" si="0"/>
-        <v>1456.8836882675646</v>
-      </c>
-      <c r="AF5">
-        <f t="shared" si="0"/>
-        <v>1405.0129550426382</v>
-      </c>
-      <c r="AG5">
-        <f t="shared" si="0"/>
-        <v>1354.5847974839762</v>
-      </c>
-      <c r="AH5">
-        <f t="shared" si="0"/>
-        <v>1305.5541791629967</v>
-      </c>
-      <c r="AI5">
-        <f t="shared" si="0"/>
-        <v>1257.8774599906003</v>
-      </c>
-      <c r="AJ5">
-        <f t="shared" si="0"/>
-        <v>1211.5123632936279</v>
-      </c>
-      <c r="AK5">
-        <f t="shared" si="0"/>
-        <v>1166.4179450016611</v>
-      </c>
-      <c r="AL5">
-        <f t="shared" si="0"/>
-        <v>1122.5545650410454</v>
-      </c>
-      <c r="AM5">
-        <f t="shared" si="0"/>
-        <v>1079.8838610583584</v>
-      </c>
-      <c r="AN5">
-        <f t="shared" si="0"/>
-        <v>1038.3687246262045</v>
-      </c>
-      <c r="AO5">
-        <f t="shared" si="0"/>
-        <v>997.97328012161927</v>
-      </c>
-      <c r="AP5">
-        <f t="shared" si="0"/>
-        <v>958.66286651333189</v>
-      </c>
-      <c r="AQ5">
-        <f t="shared" si="0"/>
-        <v>920.40402235107661</v>
-      </c>
-      <c r="AR5">
-        <f t="shared" si="0"/>
-        <v>883.16447432126245</v>
-      </c>
-      <c r="AS5">
-        <f t="shared" si="0"/>
-        <v>846.91312982287911</v>
-      </c>
-      <c r="AT5">
-        <f t="shared" si="0"/>
-        <v>811.62007413132096</v>
-      </c>
-      <c r="AU5">
-        <f t="shared" si="0"/>
-        <v>777.25657286373905</v>
-      </c>
-      <c r="AV5">
-        <f t="shared" si="0"/>
-        <v>743.79508064846857</v>
-      </c>
-      <c r="AW5">
-        <f t="shared" si="0"/>
-        <v>711.2092571482392</v>
-      </c>
-      <c r="AX5">
-        <f t="shared" si="0"/>
-        <v>679.47399191373688</v>
-      </c>
-      <c r="AY5">
-        <f t="shared" si="0"/>
-        <v>648.56543998145287</v>
-      </c>
-      <c r="AZ5">
-        <f t="shared" si="0"/>
-        <v>618.46107072237123</v>
-      </c>
-      <c r="BA5">
-        <f t="shared" si="0"/>
-        <v>589.13973326199596</v>
-      </c>
-      <c r="BB5">
-        <f t="shared" si="0"/>
-        <v>560.581742926679</v>
-      </c>
-      <c r="BC5">
-        <f t="shared" si="0"/>
-        <v>532.76899477784548</v>
-      </c>
-      <c r="BD5">
-        <f t="shared" si="0"/>
-        <v>505.68511261100127</v>
-      </c>
-      <c r="BE5">
-        <f t="shared" si="0"/>
-        <v>479.31564519716898</v>
-      </c>
-      <c r="BF5">
-        <f t="shared" si="0"/>
-        <v>453.64832664531139</v>
-      </c>
-      <c r="BG5">
-        <f t="shared" si="0"/>
-        <v>428.67342559408928</v>
-      </c>
-      <c r="BH5">
-        <f t="shared" si="0"/>
-        <v>404.38422027045709</v>
-      </c>
-      <c r="BI5">
-        <f t="shared" si="0"/>
-        <v>380.77765642219799</v>
-      </c>
-      <c r="BJ5">
-        <f t="shared" si="0"/>
-        <v>357.85527849952678</v>
-      </c>
-      <c r="BK5">
-        <f t="shared" si="0"/>
-        <v>335.62458215294146</v>
-      </c>
-      <c r="BL5">
-        <f t="shared" si="0"/>
-        <v>314.10103959273721</v>
-      </c>
-      <c r="BM5">
-        <f t="shared" si="0"/>
-        <v>293.31124208300588</v>
-      </c>
-      <c r="BN5">
-        <f t="shared" si="0"/>
-        <v>273.29797507699817</v>
-      </c>
-      <c r="BO5">
-        <f t="shared" si="0"/>
-        <v>254.1287668954906</v>
-      </c>
-      <c r="BP5">
-        <f t="shared" si="0"/>
-        <v>235.91078592157729</v>
+        <v>1644.8340853207446</v>
+      </c>
+      <c r="Y5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BB5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BK5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BL5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BM5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BN5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BO5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BP5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:68">
@@ -4241,256 +4241,256 @@
       </c>
       <c r="L6">
         <f>SUMPRODUCT($B$3:$B$5,L3:L5)*L8+L7*$B$7</f>
-        <v>27880</v>
+        <v>30000</v>
       </c>
       <c r="M6">
         <f>SUMPRODUCT($B$3:$B$5,M3:M5)*M8+M7*$B$7</f>
-        <v>26980</v>
+        <v>29632.906403940888</v>
       </c>
       <c r="N6">
         <f>SUMPRODUCT($B$3:$B$5,N3:N5)*N8+N7*$B$7</f>
-        <v>26106.215522388062</v>
+        <v>29293.615548580234</v>
       </c>
       <c r="O6">
         <f t="shared" ref="O6:BP6" si="6">SUMPRODUCT($B$3:$B$5,O3:O5)*O8+O7*$B$7</f>
-        <v>25257.842565320527</v>
+        <v>28982.103691587337</v>
       </c>
       <c r="P6">
         <f t="shared" si="6"/>
-        <v>24434.101043872557</v>
+        <v>28698.402089049618</v>
       </c>
       <c r="Q6">
         <f t="shared" si="6"/>
-        <v>23634.234082190938</v>
+        <v>28442.610349436916</v>
       </c>
       <c r="R6">
         <f t="shared" si="6"/>
-        <v>22857.507328266405</v>
+        <v>28214.920533852848</v>
       </c>
       <c r="S6">
         <f t="shared" si="6"/>
-        <v>22103.208290788771</v>
+        <v>28015.664084528678</v>
       </c>
       <c r="T6">
         <f t="shared" si="6"/>
-        <v>21370.645697580032</v>
+        <v>27845.414442390058</v>
       </c>
       <c r="U6">
         <f t="shared" si="6"/>
-        <v>20659.14887513356</v>
+        <v>27705.258043258786</v>
       </c>
       <c r="V6">
         <f t="shared" si="6"/>
-        <v>19968.067148821938</v>
+        <v>27597.81143189505</v>
       </c>
       <c r="W6">
         <f t="shared" si="6"/>
-        <v>19296.769263371942</v>
+        <v>27523.619037791152</v>
       </c>
       <c r="X6">
         <f t="shared" si="6"/>
-        <v>18644.642823243579</v>
-      </c>
-      <c r="Y6">
+        <v>27523.619037791152</v>
+      </c>
+      <c r="Y6" t="e">
         <f t="shared" si="6"/>
-        <v>18011.093752590696</v>
-      </c>
-      <c r="Z6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z6" t="e">
         <f t="shared" si="6"/>
-        <v>17395.545774524795</v>
-      </c>
-      <c r="AA6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA6" t="e">
         <f t="shared" si="6"/>
-        <v>16797.439909451336</v>
-      </c>
-      <c r="AB6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB6" t="e">
         <f t="shared" si="6"/>
-        <v>16216.233992300158</v>
-      </c>
-      <c r="AC6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC6" t="e">
         <f t="shared" si="6"/>
-        <v>15651.402208529693</v>
-      </c>
-      <c r="AD6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD6" t="e">
         <f t="shared" si="6"/>
-        <v>15102.434648849136</v>
-      </c>
-      <c r="AE6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE6" t="e">
         <f t="shared" si="6"/>
-        <v>14568.836882675645</v>
-      </c>
-      <c r="AF6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF6" t="e">
         <f t="shared" si="6"/>
-        <v>14050.129550426382</v>
-      </c>
-      <c r="AG6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG6" t="e">
         <f t="shared" si="6"/>
-        <v>13545.847974839762</v>
-      </c>
-      <c r="AH6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH6" t="e">
         <f t="shared" si="6"/>
-        <v>13055.541791629967</v>
-      </c>
-      <c r="AI6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI6" t="e">
         <f t="shared" si="6"/>
-        <v>12578.774599906003</v>
-      </c>
-      <c r="AJ6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ6" t="e">
         <f t="shared" si="6"/>
-        <v>12115.12363293628</v>
-      </c>
-      <c r="AK6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK6" t="e">
         <f t="shared" si="6"/>
-        <v>11664.179450016611</v>
-      </c>
-      <c r="AL6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL6" t="e">
         <f t="shared" si="6"/>
-        <v>11225.545650410455</v>
-      </c>
-      <c r="AM6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM6" t="e">
         <f t="shared" si="6"/>
-        <v>10798.838610583585</v>
-      </c>
-      <c r="AN6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN6" t="e">
         <f t="shared" si="6"/>
-        <v>10383.687246262045</v>
-      </c>
-      <c r="AO6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO6" t="e">
         <f t="shared" si="6"/>
-        <v>9979.7328012161925</v>
-      </c>
-      <c r="AP6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP6" t="e">
         <f t="shared" si="6"/>
-        <v>9586.6286651333194</v>
-      </c>
-      <c r="AQ6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ6" t="e">
         <f t="shared" si="6"/>
-        <v>9204.0402235107667</v>
-      </c>
-      <c r="AR6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR6" t="e">
         <f t="shared" si="6"/>
-        <v>8831.6447432126242</v>
-      </c>
-      <c r="AS6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS6" t="e">
         <f t="shared" si="6"/>
-        <v>8469.1312982287909</v>
-      </c>
-      <c r="AT6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT6" t="e">
         <f t="shared" si="6"/>
-        <v>8116.2007413132096</v>
-      </c>
-      <c r="AU6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU6" t="e">
         <f t="shared" si="6"/>
-        <v>7772.5657286373907</v>
-      </c>
-      <c r="AV6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV6" t="e">
         <f t="shared" si="6"/>
-        <v>7437.9508064846859</v>
-      </c>
-      <c r="AW6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW6" t="e">
         <f t="shared" si="6"/>
-        <v>7112.0925714823916</v>
-      </c>
-      <c r="AX6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX6" t="e">
         <f t="shared" si="6"/>
-        <v>6794.7399191373688</v>
-      </c>
-      <c r="AY6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY6" t="e">
         <f t="shared" si="6"/>
-        <v>6485.6543998145289</v>
-      </c>
-      <c r="AZ6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ6" t="e">
         <f t="shared" si="6"/>
-        <v>6184.6107072237119</v>
-      </c>
-      <c r="BA6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA6" t="e">
         <f t="shared" si="6"/>
-        <v>5891.3973326199593</v>
-      </c>
-      <c r="BB6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BB6" t="e">
         <f t="shared" si="6"/>
-        <v>5605.81742926679</v>
-      </c>
-      <c r="BC6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC6" t="e">
         <f t="shared" si="6"/>
-        <v>5327.6899477784546</v>
-      </c>
-      <c r="BD6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD6" t="e">
         <f t="shared" si="6"/>
-        <v>5056.851126110013</v>
-      </c>
-      <c r="BE6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE6" t="e">
         <f t="shared" si="6"/>
-        <v>4793.1564519716894</v>
-      </c>
-      <c r="BF6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF6" t="e">
         <f t="shared" si="6"/>
-        <v>4536.4832664531141</v>
-      </c>
-      <c r="BG6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG6" t="e">
         <f t="shared" si="6"/>
-        <v>4286.7342559408926</v>
-      </c>
-      <c r="BH6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH6" t="e">
         <f t="shared" si="6"/>
-        <v>4043.8422027045708</v>
-      </c>
-      <c r="BI6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI6" t="e">
         <f t="shared" si="6"/>
-        <v>3807.7765642219802</v>
-      </c>
-      <c r="BJ6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ6" t="e">
         <f t="shared" si="6"/>
-        <v>3578.5527849952678</v>
-      </c>
-      <c r="BK6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BK6" t="e">
         <f t="shared" si="6"/>
-        <v>3356.2458215294146</v>
-      </c>
-      <c r="BL6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BL6" t="e">
         <f t="shared" si="6"/>
-        <v>3141.010395927372</v>
-      </c>
-      <c r="BM6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BM6" t="e">
         <f t="shared" si="6"/>
-        <v>2933.1124208300589</v>
-      </c>
-      <c r="BN6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BN6" t="e">
         <f t="shared" si="6"/>
-        <v>2732.9797507699818</v>
-      </c>
-      <c r="BO6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BO6" t="e">
         <f t="shared" si="6"/>
-        <v>2541.2876689549062</v>
-      </c>
-      <c r="BP6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BP6" t="e">
         <f t="shared" si="6"/>
-        <v>2359.1078592157728</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:68" ht="15" thickBot="1">
       <c r="A7" s="53"/>
       <c r="B7" s="8">
-        <f>F7*100*(1+H7)</f>
-        <v>2000</v>
+        <f>600</f>
+        <v>600</v>
       </c>
       <c r="C7" s="8">
         <f>10*F7*(1+H7)</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D7">
         <f t="shared" ref="D7" si="7">SQRT(B7/C7)</f>
-        <v>3.1622776601683795</v>
+        <v>2.4494897427831779</v>
       </c>
       <c r="E7">
         <f t="shared" ref="E7" si="8">SQRT(B7*C7)</f>
-        <v>632.45553203367592</v>
+        <v>244.94897427831782</v>
       </c>
       <c r="F7" s="13">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G7" s="13">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H7" s="17">
         <v>0</v>
@@ -4502,231 +4502,231 @@
       </c>
       <c r="L7">
         <f>G7</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>29.920197044334977</v>
       </c>
       <c r="N7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>29.844865720145812</v>
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29.7743128192214</v>
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29.708852211832202</v>
       </c>
       <c r="Q7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29.648805545991408</v>
       </c>
       <c r="R7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29.594505414000022</v>
       </c>
       <c r="S7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29.546304087846451</v>
       </c>
       <c r="T7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29.504596190030433</v>
       </c>
       <c r="U7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29.469883847289505</v>
       </c>
       <c r="V7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29.443030320763235</v>
       </c>
       <c r="W7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29.424357543111142</v>
       </c>
       <c r="X7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AM7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AO7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AS7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AT7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AV7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AW7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AX7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AY7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AZ7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BA7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BB7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BC7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BD7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BE7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BF7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BG7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BH7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BI7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BJ7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BK7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BL7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BM7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BN7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BO7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BP7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29.424357543111142</v>
+      </c>
+      <c r="Y7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BB7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BK7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BL7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BM7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BN7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BO7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BP7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:68" ht="15" thickBot="1">
@@ -4734,9 +4734,12 @@
         <v>110</v>
       </c>
       <c r="B8" s="16">
-        <v>10</v>
-      </c>
-      <c r="C8" s="45"/>
+        <v>75</v>
+      </c>
+      <c r="C8" s="45">
+        <f>E5*F5*G5+E7*G7</f>
+        <v>22840.402613179202</v>
+      </c>
       <c r="D8" s="46"/>
       <c r="E8" s="46"/>
       <c r="F8" s="46"/>
@@ -4799,181 +4802,181 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="Y8" s="18">
+      <c r="Y8" s="18" t="e">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Z8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z8" s="18" t="e">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AA8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA8" s="18" t="e">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AB8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB8" s="18" t="e">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AC8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC8" s="18" t="e">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AD8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD8" s="18" t="e">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AE8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE8" s="18" t="e">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AF8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF8" s="18" t="e">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AG8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG8" s="18" t="e">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AH8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH8" s="18" t="e">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AI8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI8" s="18" t="e">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AJ8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ8" s="18" t="e">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AK8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK8" s="18" t="e">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AL8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL8" s="18" t="e">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AM8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM8" s="18" t="e">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AN8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN8" s="18" t="e">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AO8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO8" s="18" t="e">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AP8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP8" s="18" t="e">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AQ8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ8" s="18" t="e">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AR8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR8" s="18" t="e">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AS8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS8" s="18" t="e">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AT8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT8" s="18" t="e">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AU8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU8" s="18" t="e">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AV8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV8" s="18" t="e">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AW8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW8" s="18" t="e">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AX8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX8" s="18" t="e">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AY8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY8" s="18" t="e">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AZ8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ8" s="18" t="e">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="BA8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA8" s="18" t="e">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="BB8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BB8" s="18" t="e">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="BC8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC8" s="18" t="e">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="BD8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD8" s="18" t="e">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="BE8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE8" s="18" t="e">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="BF8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF8" s="18" t="e">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="BG8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG8" s="18" t="e">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="BH8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH8" s="18" t="e">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="BI8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI8" s="18" t="e">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="BJ8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ8" s="18" t="e">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="BK8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BK8" s="18" t="e">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="BL8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BL8" s="18" t="e">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="BM8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BM8" s="18" t="e">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="BN8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BN8" s="18" t="e">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="BO8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BO8" s="18" t="e">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="BP8" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BP8" s="18" t="e">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:68" ht="15" thickBot="1">
@@ -5026,7 +5029,7 @@
       </c>
       <c r="K10" s="2">
         <f>SUM(L3:L5,L11:L13)/2*K9</f>
-        <v>4788</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="11" spans="1:68">
@@ -5111,185 +5114,185 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="X11">
+      <c r="X11" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y11" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z11" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AA11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA11" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AB11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB11" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC11" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AD11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD11" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AE11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE11" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AF11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF11" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AG11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG11" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH11" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AI11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI11" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AJ11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ11" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AK11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK11" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AL11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL11" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AM11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM11" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AN11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN11" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AO11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO11" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AP11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP11" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AQ11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ11" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AR11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR11" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AS11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS11" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AT11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT11" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AU11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU11" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AV11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV11" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AW11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW11" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AX11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX11" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AY11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY11" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AZ11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ11" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BA11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA11" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BB11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BB11" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BC11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC11" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BD11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD11" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BE11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE11" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BF11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF11" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BG11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG11" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BH11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH11" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BI11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI11" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BJ11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ11" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BK11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BK11" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BL11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BL11" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BM11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BM11" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BN11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BN11" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BO11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BO11" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BP11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BP11" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:68">
@@ -5372,185 +5375,185 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="X12">
+      <c r="X12" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Y12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y12" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Z12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z12" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AA12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA12" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AB12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB12" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AC12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC12" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AD12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD12" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AE12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE12" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AF12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF12" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AG12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG12" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AH12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH12" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AI12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI12" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AJ12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ12" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AK12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK12" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AL12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL12" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AM12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM12" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AN12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN12" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AO12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO12" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AP12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP12" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AQ12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ12" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AR12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR12" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AS12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS12" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AT12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT12" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AU12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU12" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AV12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV12" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AW12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW12" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AX12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX12" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AY12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY12" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AZ12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ12" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BA12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA12" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BB12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BB12" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BC12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC12" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BD12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD12" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BE12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE12" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BF12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF12" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BG12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG12" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BH12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH12" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BI12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI12" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BJ12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ12" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BK12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BK12" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BL12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BL12" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BM12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BM12" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BN12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BN12" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BO12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BO12" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BP12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BP12" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:68" ht="15" thickBot="1">
@@ -5558,18 +5561,18 @@
         <v>99</v>
       </c>
       <c r="B13" s="14">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C13" s="14">
         <v>10</v>
       </c>
       <c r="D13">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0.7745966692414834</v>
       </c>
       <c r="E13">
         <f t="shared" si="12"/>
-        <v>10</v>
+        <v>7.745966692414834</v>
       </c>
       <c r="F13" s="14">
         <v>2000</v>
@@ -5589,227 +5592,227 @@
       </c>
       <c r="M13">
         <f t="shared" ref="M13:N15" si="15">IF((L13-0.03*L$6*IF($B$8-$B$16&gt;0,1+($B$8-$B$16)*2%,1)*L13/SUM(L$11:L$13,L$15)/$C13)&gt;0,(L13-0.03*L$6*IF($B$8-$B$16&gt;0,1+($B$8-$B$16)*2%,1)*L13/SUM(L$11:L$13,L$15)/$C13),0)</f>
-        <v>1916.7761194029852</v>
+        <v>1776.1194029850747</v>
       </c>
       <c r="N13">
         <f t="shared" si="15"/>
-        <v>1836.2544603453571</v>
+        <v>1555.1030531217737</v>
       </c>
       <c r="O13">
         <f t="shared" ref="O13:BP13" si="16">IF((N13-0.03*N$6*IF($B$8-$B$16&gt;0,1+($B$8-$B$16)*2%,1)*N13/SUM(N$11:N$13,N$15)/$C13)&gt;0,(N13-0.03*N$6*IF($B$8-$B$16&gt;0,1+($B$8-$B$16)*2%,1)*N13/SUM(N$11:N$13,N$15)/$C13),0)</f>
-        <v>1758.3564958705695</v>
+        <v>1336.7719111492067</v>
       </c>
       <c r="P13">
         <f t="shared" si="16"/>
-        <v>1683.0061168625946</v>
+        <v>1120.9604858272126</v>
       </c>
       <c r="Q13">
         <f t="shared" si="16"/>
-        <v>1610.1295607004586</v>
+        <v>907.52606075380311</v>
       </c>
       <c r="R13">
         <f t="shared" si="16"/>
-        <v>1539.6553420734881</v>
+        <v>696.36851680014502</v>
       </c>
       <c r="S13">
         <f t="shared" si="16"/>
-        <v>1471.5141858936709</v>
+        <v>487.47911305432092</v>
       </c>
       <c r="T13">
         <f t="shared" si="16"/>
-        <v>1405.6389622437346</v>
+        <v>281.08895274785891</v>
       </c>
       <c r="U13">
         <f t="shared" si="16"/>
-        <v>1341.9646233017447</v>
+        <v>78.329868414796124</v>
       </c>
       <c r="V13">
         <f t="shared" si="16"/>
-        <v>1280.4281421852363</v>
+        <v>0</v>
       </c>
       <c r="W13">
         <f t="shared" si="16"/>
-        <v>1220.9684536601371</v>
-      </c>
-      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="X13" t="e">
         <f t="shared" si="16"/>
-        <v>1163.526396662038</v>
-      </c>
-      <c r="Y13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y13" t="e">
         <f t="shared" si="16"/>
-        <v>1108.044658579739</v>
-      </c>
-      <c r="Z13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z13" t="e">
         <f t="shared" si="16"/>
-        <v>1054.467721253488</v>
-      </c>
-      <c r="AA13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA13" t="e">
         <f t="shared" si="16"/>
-        <v>1002.7418086429551</v>
-      </c>
-      <c r="AB13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB13" t="e">
         <f t="shared" si="16"/>
-        <v>952.81483612282602</v>
-      </c>
-      <c r="AC13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC13" t="e">
         <f t="shared" si="16"/>
-        <v>904.63636136697505</v>
-      </c>
-      <c r="AD13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD13" t="e">
         <f t="shared" si="16"/>
-        <v>858.15753678560645</v>
-      </c>
-      <c r="AE13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE13" t="e">
         <f t="shared" si="16"/>
-        <v>813.33106348359945</v>
-      </c>
-      <c r="AF13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF13" t="e">
         <f t="shared" si="16"/>
-        <v>770.11114671269684</v>
-      </c>
-      <c r="AG13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG13" t="e">
         <f t="shared" si="16"/>
-        <v>728.45345279528487</v>
-      </c>
-      <c r="AH13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH13" t="e">
         <f t="shared" si="16"/>
-        <v>688.31506750353401</v>
-      </c>
-      <c r="AI13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI13" t="e">
         <f t="shared" si="16"/>
-        <v>649.6544558848567</v>
-      </c>
-      <c r="AJ13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ13" t="e">
         <f t="shared" si="16"/>
-        <v>612.43142353333826</v>
-      </c>
-      <c r="AK13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK13" t="e">
         <f t="shared" si="16"/>
-        <v>576.60707931744378</v>
-      </c>
-      <c r="AL13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL13" t="e">
         <f t="shared" si="16"/>
-        <v>542.14379958749498</v>
-      </c>
-      <c r="AM13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM13" t="e">
         <f t="shared" si="16"/>
-        <v>509.00519390291612</v>
-      </c>
-      <c r="AN13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN13" t="e">
         <f t="shared" si="16"/>
-        <v>477.15607234011401</v>
-      </c>
-      <c r="AO13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO13" t="e">
         <f t="shared" si="16"/>
-        <v>446.56241446849162</v>
-      </c>
-      <c r="AP13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP13" t="e">
         <f t="shared" si="16"/>
-        <v>417.19134011640858</v>
-      </c>
-      <c r="AQ13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ13" t="e">
         <f t="shared" si="16"/>
-        <v>389.01108209352395</v>
-      </c>
-      <c r="AR13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR13" t="e">
         <f t="shared" si="16"/>
-        <v>361.9909610945279</v>
-      </c>
-      <c r="AS13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS13" t="e">
         <f t="shared" si="16"/>
-        <v>336.10136308687572</v>
-      </c>
-      <c r="AT13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT13" t="e">
         <f t="shared" si="16"/>
-        <v>311.31371958898791</v>
-      </c>
-      <c r="AU13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU13" t="e">
         <f t="shared" si="16"/>
-        <v>287.60049138576403</v>
-      </c>
-      <c r="AV13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV13" t="e">
         <f t="shared" si="16"/>
-        <v>264.93515642008759</v>
-      </c>
-      <c r="AW13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW13" t="e">
         <f t="shared" si="16"/>
-        <v>243.29220286412806</v>
-      </c>
-      <c r="AX13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX13" t="e">
         <f t="shared" si="16"/>
-        <v>222.64712874518034</v>
-      </c>
-      <c r="AY13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY13" t="e">
         <f t="shared" si="16"/>
-        <v>202.97645002658331</v>
-      </c>
-      <c r="AZ13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ13" t="e">
         <f t="shared" si="16"/>
-        <v>184.25771980018806</v>
-      </c>
-      <c r="BA13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA13" t="e">
         <f t="shared" si="16"/>
-        <v>166.46956235039892</v>
-      </c>
-      <c r="BB13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BB13" t="e">
         <f t="shared" si="16"/>
-        <v>149.59172748790073</v>
-      </c>
-      <c r="BC13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC13" t="e">
         <f t="shared" si="16"/>
-        <v>133.60517302734209</v>
-      </c>
-      <c r="BD13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD13" t="e">
         <f t="shared" si="16"/>
-        <v>118.49218710145809</v>
-      </c>
-      <c r="BE13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE13" t="e">
         <f t="shared" si="16"/>
-        <v>104.23656802173839</v>
-      </c>
-      <c r="BF13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF13" t="e">
         <f t="shared" si="16"/>
-        <v>90.823889110112432</v>
-      </c>
-      <c r="BG13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG13" t="e">
         <f t="shared" si="16"/>
-        <v>78.241892027823852</v>
-      </c>
-      <c r="BH13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH13" t="e">
         <f t="shared" si="16"/>
-        <v>66.481079601995418</v>
-      </c>
-      <c r="BI13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI13" t="e">
         <f t="shared" si="16"/>
-        <v>55.535627539601819</v>
-      </c>
-      <c r="BJ13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ13" t="e">
         <f t="shared" si="16"/>
-        <v>45.404822607328207</v>
-      </c>
-      <c r="BK13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BK13" t="e">
         <f t="shared" si="16"/>
-        <v>36.095401421718336</v>
-      </c>
-      <c r="BL13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BL13" t="e">
         <f t="shared" si="16"/>
-        <v>27.625489610964365</v>
-      </c>
-      <c r="BM13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BM13" t="e">
         <f t="shared" si="16"/>
-        <v>20.031493860553368</v>
-      </c>
-      <c r="BN13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BN13" t="e">
         <f t="shared" si="16"/>
-        <v>13.380596252231372</v>
-      </c>
-      <c r="BO13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BO13" t="e">
         <f t="shared" si="16"/>
-        <v>7.7937274814953987</v>
-      </c>
-      <c r="BP13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BP13" t="e">
         <f t="shared" si="16"/>
-        <v>3.4844462829445737</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:68">
@@ -5844,238 +5847,238 @@
       </c>
       <c r="L14">
         <f>SUMPRODUCT($B$11:$B$13,L11:L13)*L16+L15*$B$15</f>
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="M14">
         <f t="shared" ref="M14:BP14" si="17">SUMPRODUCT($B$11:$B$13,M11:M13)*M16+M15*$B$15</f>
-        <v>29126.149253731346</v>
+        <v>16589.552238805969</v>
       </c>
       <c r="N14">
         <f t="shared" si="17"/>
-        <v>28279.098568917881</v>
+        <v>15189.627249650817</v>
       </c>
       <c r="O14">
         <f t="shared" si="17"/>
-        <v>27458.050714932338</v>
+        <v>13797.381919308325</v>
       </c>
       <c r="P14">
         <f t="shared" si="17"/>
-        <v>26662.232056053923</v>
+        <v>12409.252225481707</v>
       </c>
       <c r="Q14">
         <f t="shared" si="17"/>
-        <v>25890.891797484393</v>
+        <v>11020.430239373489</v>
       </c>
       <c r="R14">
         <f t="shared" si="17"/>
-        <v>25143.301249254459</v>
+        <v>9623.7629556244119</v>
       </c>
       <c r="S14">
         <f t="shared" si="17"/>
-        <v>24418.75310695808</v>
+        <v>8207.0765176651348</v>
       </c>
       <c r="T14">
         <f t="shared" si="17"/>
-        <v>23716.560748215707</v>
+        <v>6745.0963361761815</v>
       </c>
       <c r="U14">
         <f t="shared" si="17"/>
-        <v>23036.057543720781</v>
+        <v>5163.6503910860492</v>
       </c>
       <c r="V14">
         <f t="shared" si="17"/>
-        <v>22376.596181666468</v>
+        <v>3561.6163428759596</v>
       </c>
       <c r="W14">
         <f t="shared" si="17"/>
-        <v>21737.548004278819</v>
-      </c>
-      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="X14" t="e">
         <f t="shared" si="17"/>
-        <v>21118.302355096166</v>
-      </c>
-      <c r="Y14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y14" t="e">
         <f t="shared" si="17"/>
-        <v>20518.265935529991</v>
-      </c>
-      <c r="Z14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z14" t="e">
         <f t="shared" si="17"/>
-        <v>19936.862169115382</v>
-      </c>
-      <c r="AA14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA14" t="e">
         <f t="shared" si="17"/>
-        <v>19373.530571705902</v>
-      </c>
-      <c r="AB14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB14" t="e">
         <f t="shared" si="17"/>
-        <v>18827.726125682115</v>
-      </c>
-      <c r="AC14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC14" t="e">
         <f t="shared" si="17"/>
-        <v>18298.91865601865</v>
-      </c>
-      <c r="AD14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD14" t="e">
         <f t="shared" si="17"/>
-        <v>17786.592205782923</v>
-      </c>
-      <c r="AE14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE14" t="e">
         <f t="shared" si="17"/>
-        <v>17290.244408308805</v>
-      </c>
-      <c r="AF14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF14" t="e">
         <f t="shared" si="17"/>
-        <v>16809.385852887346</v>
-      </c>
-      <c r="AG14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG14" t="e">
         <f t="shared" si="17"/>
-        <v>16343.5394403265</v>
-      </c>
-      <c r="AH14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH14" t="e">
         <f t="shared" si="17"/>
-        <v>15892.239724132152</v>
-      </c>
-      <c r="AI14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI14" t="e">
         <f t="shared" si="17"/>
-        <v>15455.032232324116</v>
-      </c>
-      <c r="AJ14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ14" t="e">
         <f t="shared" si="17"/>
-        <v>15031.472763988972</v>
-      </c>
-      <c r="AK14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK14" t="e">
         <f t="shared" si="17"/>
-        <v>14621.126653538591</v>
-      </c>
-      <c r="AL14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL14" t="e">
         <f t="shared" si="17"/>
-        <v>14223.567994228997</v>
-      </c>
-      <c r="AM14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM14" t="e">
         <f t="shared" si="17"/>
-        <v>13838.378810717959</v>
-      </c>
-      <c r="AN14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN14" t="e">
         <f t="shared" si="17"/>
-        <v>13465.148168195075</v>
-      </c>
-      <c r="AO14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO14" t="e">
         <f t="shared" si="17"/>
-        <v>13103.471202762472</v>
-      </c>
-      <c r="AP14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP14" t="e">
         <f t="shared" si="17"/>
-        <v>12752.948054085091</v>
-      </c>
-      <c r="AQ14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ14" t="e">
         <f t="shared" si="17"/>
-        <v>12413.182676604712</v>
-      </c>
-      <c r="AR14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR14" t="e">
         <f t="shared" si="17"/>
-        <v>12083.781499461125</v>
-      </c>
-      <c r="AS14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS14" t="e">
         <f t="shared" si="17"/>
-        <v>11764.351897186032</v>
-      </c>
-      <c r="AT14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT14" t="e">
         <f t="shared" si="17"/>
-        <v>11454.500422527297</v>
-      </c>
-      <c r="AU14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU14" t="e">
         <f t="shared" si="17"/>
-        <v>11153.830738423483</v>
-      </c>
-      <c r="AV14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV14" t="e">
         <f t="shared" si="17"/>
-        <v>10861.941166743141</v>
-      </c>
-      <c r="AW14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW14" t="e">
         <f t="shared" si="17"/>
-        <v>10578.421744834095</v>
-      </c>
-      <c r="AX14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX14" t="e">
         <f t="shared" si="17"/>
-        <v>10302.850644094673</v>
-      </c>
-      <c r="AY14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY14" t="e">
         <f t="shared" si="17"/>
-        <v>10034.789753027195</v>
-      </c>
-      <c r="AZ14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ14" t="e">
         <f t="shared" si="17"/>
-        <v>9773.7791534584085</v>
-      </c>
-      <c r="BA14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA14" t="e">
         <f t="shared" si="17"/>
-        <v>9519.3301117723167</v>
-      </c>
-      <c r="BB14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BB14" t="e">
         <f t="shared" si="17"/>
-        <v>9270.9160496111672</v>
-      </c>
-      <c r="BC14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC14" t="e">
         <f t="shared" si="17"/>
-        <v>9027.9607222814102</v>
-      </c>
-      <c r="BD14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD14" t="e">
         <f t="shared" si="17"/>
-        <v>8789.8224712774336</v>
-      </c>
-      <c r="BE14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE14" t="e">
         <f t="shared" si="17"/>
-        <v>8555.7728506192016</v>
-      </c>
-      <c r="BF14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF14" t="e">
         <f t="shared" si="17"/>
-        <v>8324.9670170740319</v>
-      </c>
-      <c r="BG14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG14" t="e">
         <f t="shared" si="17"/>
-        <v>8096.4017745440688</v>
-      </c>
-      <c r="BH14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH14" t="e">
         <f t="shared" si="17"/>
-        <v>7868.8546160863607</v>
-      </c>
-      <c r="BI14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI14" t="e">
         <f t="shared" si="17"/>
-        <v>7640.7926408904132</v>
-      </c>
-      <c r="BJ14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ14" t="e">
         <f t="shared" si="17"/>
-        <v>7410.2321155284435</v>
-      </c>
-      <c r="BK14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BK14" t="e">
         <f t="shared" si="17"/>
-        <v>7174.514186734752</v>
-      </c>
-      <c r="BL14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BL14" t="e">
         <f t="shared" si="17"/>
-        <v>6929.9325032437837</v>
-      </c>
-      <c r="BM14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BM14" t="e">
         <f t="shared" si="17"/>
-        <v>6671.0890020025627</v>
-      </c>
-      <c r="BN14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BN14" t="e">
         <f t="shared" si="17"/>
-        <v>6389.7360605025251</v>
-      </c>
-      <c r="BO14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BO14" t="e">
         <f t="shared" si="17"/>
-        <v>6072.6603246377672</v>
-      </c>
-      <c r="BP14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BP14" t="e">
         <f t="shared" si="17"/>
-        <v>5698.1093318208696</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:68" ht="15" thickBot="1">
       <c r="A15" s="53"/>
       <c r="B15" s="8">
-        <f>F15*100*(1+H15)</f>
-        <v>1000</v>
+        <f>600</f>
+        <v>600</v>
       </c>
       <c r="C15" s="8">
         <f>10*F15*(1+H15)</f>
@@ -6083,11 +6086,11 @@
       </c>
       <c r="D15">
         <f t="shared" ref="D15" si="18">SQRT(B15/C15)</f>
-        <v>3.1622776601683795</v>
+        <v>2.4494897427831779</v>
       </c>
       <c r="E15">
         <f t="shared" ref="E15" si="19">SQRT(B15*C15)</f>
-        <v>316.22776601683796</v>
+        <v>244.94897427831782</v>
       </c>
       <c r="F15" s="13">
         <v>10</v>
@@ -6109,227 +6112,227 @@
       </c>
       <c r="M15">
         <f t="shared" si="15"/>
-        <v>9.9583880597014929</v>
+        <v>9.8880597014925371</v>
       </c>
       <c r="N15">
         <f t="shared" si="15"/>
-        <v>9.9165539654643116</v>
+        <v>9.7650148848669591</v>
       </c>
       <c r="O15">
         <f t="shared" ref="O15:BP15" si="20">IF((N15-0.03*N$6*IF($B$8-$B$16&gt;0,1+($B$8-$B$16)*2%,1)*N15/SUM(N$11:N$13,N$15)/$C15)&gt;0,(N15-0.03*N$6*IF($B$8-$B$16&gt;0,1+($B$8-$B$16)*2%,1)*N15/SUM(N$11:N$13,N$15)/$C15),0)</f>
-        <v>9.8744857562266457</v>
+        <v>9.6279174206884761</v>
       </c>
       <c r="P15">
         <f t="shared" si="20"/>
-        <v>9.8321708874279761</v>
+        <v>9.4724821841973856</v>
       </c>
       <c r="Q15">
         <f t="shared" si="20"/>
-        <v>9.7895961904798092</v>
+        <v>9.2921231247511162</v>
       </c>
       <c r="R15">
         <f t="shared" si="20"/>
-        <v>9.7467478285195774</v>
+        <v>9.0759197580392357</v>
       </c>
       <c r="S15">
         <f t="shared" si="20"/>
-        <v>9.7036112480213728</v>
+        <v>8.8036697322320148</v>
       </c>
       <c r="T15">
         <f t="shared" si="20"/>
-        <v>9.660171125778362</v>
+        <v>8.4309376994817136</v>
       </c>
       <c r="U15">
         <f t="shared" si="20"/>
-        <v>9.6164113107033309</v>
+        <v>7.8227853009954549</v>
       </c>
       <c r="V15">
         <f t="shared" si="20"/>
-        <v>9.5723147598141036</v>
+        <v>5.9360272381265995</v>
       </c>
       <c r="W15">
         <f t="shared" si="20"/>
-        <v>9.5278634676774452</v>
-      </c>
-      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="X15" t="e">
         <f t="shared" si="20"/>
-        <v>9.4830383884757854</v>
-      </c>
-      <c r="Y15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y15" t="e">
         <f t="shared" si="20"/>
-        <v>9.4378193497325995</v>
-      </c>
-      <c r="Z15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z15" t="e">
         <f t="shared" si="20"/>
-        <v>9.3921849565805005</v>
-      </c>
-      <c r="AA15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA15" t="e">
         <f t="shared" si="20"/>
-        <v>9.3461124852763504</v>
-      </c>
-      <c r="AB15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB15" t="e">
         <f t="shared" si="20"/>
-        <v>9.299577764453856</v>
-      </c>
-      <c r="AC15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC15" t="e">
         <f t="shared" si="20"/>
-        <v>9.2525550423489022</v>
-      </c>
-      <c r="AD15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD15" t="e">
         <f t="shared" si="20"/>
-        <v>9.2050168379268555</v>
-      </c>
-      <c r="AE15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE15" t="e">
         <f t="shared" si="20"/>
-        <v>9.1569337734728116</v>
-      </c>
-      <c r="AF15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF15" t="e">
         <f t="shared" si="20"/>
-        <v>9.1082743857603763</v>
-      </c>
-      <c r="AG15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG15" t="e">
         <f t="shared" si="20"/>
-        <v>9.059004912373652</v>
-      </c>
-      <c r="AH15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH15" t="e">
         <f t="shared" si="20"/>
-        <v>9.0090890490968114</v>
-      </c>
-      <c r="AI15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI15" t="e">
         <f t="shared" si="20"/>
-        <v>8.958487673475549</v>
-      </c>
-      <c r="AJ15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ15" t="e">
         <f t="shared" si="20"/>
-        <v>8.9071585286555894</v>
-      </c>
-      <c r="AK15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK15" t="e">
         <f t="shared" si="20"/>
-        <v>8.8550558603641534</v>
-      </c>
-      <c r="AL15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL15" t="e">
         <f t="shared" si="20"/>
-        <v>8.8021299983540473</v>
-      </c>
-      <c r="AM15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM15" t="e">
         <f t="shared" si="20"/>
-        <v>8.7483268716887981</v>
-      </c>
-      <c r="AN15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN15" t="e">
         <f t="shared" si="20"/>
-        <v>8.6935874447939341</v>
-      </c>
-      <c r="AO15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO15" t="e">
         <f t="shared" si="20"/>
-        <v>8.6378470580775559</v>
-      </c>
-      <c r="AP15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP15" t="e">
         <f t="shared" si="20"/>
-        <v>8.5810346529210051</v>
-      </c>
-      <c r="AQ15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ15" t="e">
         <f t="shared" si="20"/>
-        <v>8.5230718556694711</v>
-      </c>
-      <c r="AR15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR15" t="e">
         <f t="shared" si="20"/>
-        <v>8.4638718885158468</v>
-      </c>
-      <c r="AS15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS15" t="e">
         <f t="shared" si="20"/>
-        <v>8.4033382663172738</v>
-      </c>
-      <c r="AT15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT15" t="e">
         <f t="shared" si="20"/>
-        <v>8.3413632266374176</v>
-      </c>
-      <c r="AU15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU15" t="e">
         <f t="shared" si="20"/>
-        <v>8.2778258245658414</v>
-      </c>
-      <c r="AV15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV15" t="e">
         <f t="shared" si="20"/>
-        <v>8.2125896025422662</v>
-      </c>
-      <c r="AW15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW15" t="e">
         <f t="shared" si="20"/>
-        <v>8.1454997161928144</v>
-      </c>
-      <c r="AX15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX15" t="e">
         <f t="shared" si="20"/>
-        <v>8.0763793566428692</v>
-      </c>
-      <c r="AY15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY15" t="e">
         <f t="shared" si="20"/>
-        <v>8.0050252527613619</v>
-      </c>
-      <c r="AZ15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ15" t="e">
         <f t="shared" si="20"/>
-        <v>7.9312019554565287</v>
-      </c>
-      <c r="BA15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA15" t="e">
         <f t="shared" si="20"/>
-        <v>7.8546344882683279</v>
-      </c>
-      <c r="BB15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BB15" t="e">
         <f t="shared" si="20"/>
-        <v>7.7749987747321603</v>
-      </c>
-      <c r="BC15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC15" t="e">
         <f t="shared" si="20"/>
-        <v>7.6919089920079884</v>
-      </c>
-      <c r="BD15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD15" t="e">
         <f t="shared" si="20"/>
-        <v>7.6049006002628516</v>
-      </c>
-      <c r="BE15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE15" t="e">
         <f t="shared" si="20"/>
-        <v>7.513407170401817</v>
-      </c>
-      <c r="BF15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF15" t="e">
         <f t="shared" si="20"/>
-        <v>7.4167281259729068</v>
-      </c>
-      <c r="BG15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG15" t="e">
         <f t="shared" si="20"/>
-        <v>7.3139828542658307</v>
-      </c>
-      <c r="BH15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH15" t="e">
         <f t="shared" si="20"/>
-        <v>7.2040438200664063</v>
-      </c>
-      <c r="BI15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI15" t="e">
         <f t="shared" si="20"/>
-        <v>7.0854363654943944</v>
-      </c>
-      <c r="BJ15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ15" t="e">
         <f t="shared" si="20"/>
-        <v>6.9561838894551613</v>
-      </c>
-      <c r="BK15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BK15" t="e">
         <f t="shared" si="20"/>
-        <v>6.8135601725175681</v>
-      </c>
-      <c r="BL15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BL15" t="e">
         <f t="shared" si="20"/>
-        <v>6.6536776071341404</v>
-      </c>
-      <c r="BM15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BM15" t="e">
         <f t="shared" si="20"/>
-        <v>6.4707740633970285</v>
-      </c>
-      <c r="BN15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BN15" t="e">
         <f t="shared" si="20"/>
-        <v>6.2559300979802108</v>
-      </c>
-      <c r="BO15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BO15" t="e">
         <f t="shared" si="20"/>
-        <v>5.9947230498228139</v>
-      </c>
-      <c r="BP15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BP15" t="e">
         <f t="shared" si="20"/>
-        <v>5.6632648689914244</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:68" ht="15" thickBot="1">
@@ -6337,9 +6340,12 @@
         <v>110</v>
       </c>
       <c r="B16" s="16">
-        <v>10</v>
-      </c>
-      <c r="C16" s="45"/>
+        <v>0</v>
+      </c>
+      <c r="C16" s="45">
+        <f>E13*F13*G13+E15*G15</f>
+        <v>17941.423127612848</v>
+      </c>
       <c r="D16" s="46"/>
       <c r="E16" s="46"/>
       <c r="F16" s="46"/>
@@ -6398,185 +6404,185 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="X16" s="18">
+      <c r="X16" s="18" t="e">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="Y16" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y16" s="18" t="e">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="Z16" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z16" s="18" t="e">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AA16" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA16" s="18" t="e">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AB16" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB16" s="18" t="e">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AC16" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC16" s="18" t="e">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AD16" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD16" s="18" t="e">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AE16" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE16" s="18" t="e">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AF16" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF16" s="18" t="e">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AG16" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG16" s="18" t="e">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AH16" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH16" s="18" t="e">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AI16" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI16" s="18" t="e">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AJ16" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ16" s="18" t="e">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AK16" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK16" s="18" t="e">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AL16" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL16" s="18" t="e">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AM16" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM16" s="18" t="e">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AN16" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN16" s="18" t="e">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AO16" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO16" s="18" t="e">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AP16" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP16" s="18" t="e">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AQ16" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ16" s="18" t="e">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AR16" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR16" s="18" t="e">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AS16" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS16" s="18" t="e">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AT16" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT16" s="18" t="e">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AU16" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU16" s="18" t="e">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AV16" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV16" s="18" t="e">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AW16" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW16" s="18" t="e">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AX16" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX16" s="18" t="e">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AY16" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY16" s="18" t="e">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AZ16" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ16" s="18" t="e">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="BA16" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA16" s="18" t="e">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="BB16" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BB16" s="18" t="e">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="BC16" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC16" s="18" t="e">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="BD16" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD16" s="18" t="e">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="BE16" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE16" s="18" t="e">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="BF16" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF16" s="18" t="e">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="BG16" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG16" s="18" t="e">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="BH16" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH16" s="18" t="e">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="BI16" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI16" s="18" t="e">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="BJ16" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ16" s="18" t="e">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="BK16" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BK16" s="18" t="e">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="BL16" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BL16" s="18" t="e">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="BM16" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BM16" s="18" t="e">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="BN16" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BN16" s="18" t="e">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="BO16" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BO16" s="18" t="e">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="BP16" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BP16" s="18" t="e">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -20123,7 +20129,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AE54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Y13" sqref="Y13"/>
     </sheetView>
